--- a/apps/load_data/2019/09/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/09/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY0919\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\HHY0919\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{084CA68C-B43A-43D6-9A48-B8A60B84F2BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18786F04-D521-4658-B4F8-FE1438CB9A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$280</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$280</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12041" uniqueCount="3319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12019" uniqueCount="3316">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7216,9 +7217,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8500,9 +8498,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8858,9 +8853,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9985,7 +9977,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10825,10 +10817,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB286" sqref="AB286"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45175,12 +45169,7 @@
       <c r="AB184" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -45233,7 +45222,7 @@
         <v>19</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BE184" s="1" t="s">
         <v>113</v>
@@ -45245,10 +45234,10 @@
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2400</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>118</v>
@@ -45263,13 +45252,13 @@
         <v>159</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BS184" s="3">
         <v>36225</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -45290,19 +45279,19 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="CG184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>130</v>
@@ -45340,13 +45329,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -45378,12 +45367,7 @@
       <c r="AB185" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="AC185" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD185" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC185" s="3"/>
       <c r="AF185" s="1" t="s">
         <v>106</v>
       </c>
@@ -45430,7 +45414,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BB185" s="1">
         <v>9</v>
@@ -45439,7 +45423,7 @@
         <v>19</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BE185" s="1" t="s">
         <v>113</v>
@@ -45451,10 +45435,10 @@
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2413</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2414</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>118</v>
@@ -45466,13 +45450,13 @@
         <v>102</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BS185" s="3">
         <v>36949</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -45496,19 +45480,19 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="CD185" s="1" t="s">
         <v>2065</v>
       </c>
       <c r="CE185" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="CG185" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="CG185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>130</v>
@@ -45546,13 +45530,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -45584,12 +45568,7 @@
       <c r="AB186" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="AC186" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD186" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC186" s="3"/>
       <c r="AF186" s="1" t="s">
         <v>106</v>
       </c>
@@ -45636,7 +45615,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BB186" s="1">
         <v>9</v>
@@ -45645,7 +45624,7 @@
         <v>19</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>113</v>
@@ -45657,10 +45636,10 @@
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>118</v>
@@ -45675,13 +45654,13 @@
         <v>159</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BS186" s="3">
         <v>36825</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -45705,19 +45684,19 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="CG186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>130</v>
@@ -45755,13 +45734,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -45790,12 +45769,7 @@
       <c r="AA187" s="1">
         <v>0</v>
       </c>
-      <c r="AC187" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD187" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC187" s="3"/>
       <c r="AF187" s="1" t="s">
         <v>106</v>
       </c>
@@ -45845,7 +45819,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BB187" s="1">
         <v>9</v>
@@ -45854,7 +45828,7 @@
         <v>19</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>113</v>
@@ -45866,7 +45840,7 @@
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BI187" s="1" t="s">
         <v>756</v>
@@ -45878,7 +45852,7 @@
         <v>105</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -45896,16 +45870,16 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="CD187" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CG187" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>762</v>
@@ -45946,13 +45920,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -45984,12 +45958,7 @@
       <c r="AB188" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC188" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD188" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC188" s="3"/>
       <c r="AF188" s="1" t="s">
         <v>106</v>
       </c>
@@ -46039,7 +46008,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BB188" s="1">
         <v>9</v>
@@ -46048,7 +46017,7 @@
         <v>19</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -46060,13 +46029,13 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46087,13 +46056,13 @@
         <v>690</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>130</v>
@@ -46134,13 +46103,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46169,12 +46138,7 @@
       <c r="AA189" s="1">
         <v>0</v>
       </c>
-      <c r="AC189" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD189" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC189" s="3"/>
       <c r="AF189" s="1" t="s">
         <v>106</v>
       </c>
@@ -46224,7 +46188,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BB189" s="1">
         <v>9</v>
@@ -46233,7 +46197,7 @@
         <v>19</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -46245,7 +46209,7 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BI189" s="1" t="s">
         <v>975</v>
@@ -46257,7 +46221,7 @@
         <v>105</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46275,16 +46239,16 @@
         <v>101</v>
       </c>
       <c r="CC189" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CD189" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="CD189" s="1" t="s">
-        <v>2462</v>
-      </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>980</v>
@@ -46325,13 +46289,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46366,12 +46330,7 @@
       <c r="AA190" s="1">
         <v>0</v>
       </c>
-      <c r="AC190" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD190" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC190" s="3"/>
       <c r="AF190" s="1" t="s">
         <v>106</v>
       </c>
@@ -46418,7 +46377,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BB190" s="1">
         <v>9</v>
@@ -46427,7 +46386,7 @@
         <v>19</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -46439,10 +46398,10 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -46454,13 +46413,13 @@
         <v>119</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BS190" s="3">
         <v>35243</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -46478,19 +46437,19 @@
         <v>101</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="CG190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2477</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2478</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -46528,13 +46487,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46563,12 +46522,7 @@
       <c r="AA191" s="1">
         <v>0</v>
       </c>
-      <c r="AC191" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD191" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC191" s="3"/>
       <c r="AF191" s="1" t="s">
         <v>106</v>
       </c>
@@ -46618,7 +46572,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BB191" s="1">
         <v>9</v>
@@ -46627,7 +46581,7 @@
         <v>19</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -46639,7 +46593,7 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>586</v>
@@ -46651,7 +46605,7 @@
         <v>105</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -46669,16 +46623,16 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="CD191" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="CD191" s="1" t="s">
+      <c r="CE191" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2488</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2489</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>592</v>
@@ -46719,13 +46673,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46754,12 +46708,7 @@
       <c r="AA192" s="1">
         <v>0</v>
       </c>
-      <c r="AC192" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD192" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC192" s="3"/>
       <c r="AF192" s="1" t="s">
         <v>106</v>
       </c>
@@ -46809,7 +46758,7 @@
         <v>101</v>
       </c>
       <c r="AZ192" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BB192" s="1">
         <v>9</v>
@@ -46818,7 +46767,7 @@
         <v>19</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -46830,7 +46779,7 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1056</v>
@@ -46845,7 +46794,7 @@
         <v>159</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -46863,16 +46812,16 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2499</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2500</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>1062</v>
@@ -46913,13 +46862,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46948,12 +46897,7 @@
       <c r="AA193" s="1">
         <v>0</v>
       </c>
-      <c r="AC193" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD193" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC193" s="3"/>
       <c r="AF193" s="1" t="s">
         <v>106</v>
       </c>
@@ -47000,7 +46944,7 @@
         <v>101</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BB193" s="1">
         <v>9</v>
@@ -47009,7 +46953,7 @@
         <v>19</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -47021,7 +46965,7 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>464</v>
@@ -47036,13 +46980,13 @@
         <v>219</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BS193" s="3">
         <v>34307</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47060,16 +47004,16 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="CD193" s="1" t="s">
         <v>424</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>471</v>
@@ -47110,13 +47054,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47148,12 +47092,7 @@
       <c r="AA194" s="1">
         <v>0</v>
       </c>
-      <c r="AC194" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD194" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC194" s="3"/>
       <c r="AF194" s="1" t="s">
         <v>106</v>
       </c>
@@ -47203,7 +47142,7 @@
         <v>101</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BB194" s="1">
         <v>9</v>
@@ -47212,7 +47151,7 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47224,7 +47163,7 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BI194" s="1" t="s">
         <v>380</v>
@@ -47236,7 +47175,7 @@
         <v>105</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47257,16 +47196,16 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>388</v>
@@ -47307,13 +47246,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47342,12 +47281,7 @@
       <c r="AA195" s="1">
         <v>0</v>
       </c>
-      <c r="AC195" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD195" s="1" t="s">
-        <v>2397</v>
-      </c>
+      <c r="AC195" s="3"/>
       <c r="AF195" s="1" t="s">
         <v>106</v>
       </c>
@@ -47394,7 +47328,7 @@
         <v>101</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BB195" s="1">
         <v>9</v>
@@ -47403,7 +47337,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -47415,10 +47349,10 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47430,13 +47364,13 @@
         <v>119</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BS195" s="3">
         <v>35950</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47454,19 +47388,19 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="CD195" s="1" t="s">
         <v>1862</v>
       </c>
       <c r="CE195" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="CG195" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -47504,10 +47438,10 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>1690</v>
@@ -47588,7 +47522,7 @@
         <v>1798</v>
       </c>
       <c r="CE196" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="197" spans="1:87" x14ac:dyDescent="0.25">
@@ -47623,13 +47557,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47710,7 +47644,7 @@
         <v>101</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BB197" s="1">
         <v>9</v>
@@ -47719,7 +47653,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -47731,7 +47665,7 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>1069</v>
@@ -47746,7 +47680,7 @@
         <v>159</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -47764,16 +47698,16 @@
         <v>101</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>424</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>1075</v>
@@ -47814,13 +47748,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47895,7 +47829,7 @@
         <v>101</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BB198" s="1">
         <v>9</v>
@@ -47904,7 +47838,7 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -47916,10 +47850,10 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="BI198" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="BI198" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -47931,13 +47865,13 @@
         <v>219</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BS198" s="3">
         <v>36099</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -47955,19 +47889,19 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="CG198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>130</v>
@@ -48005,13 +47939,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2563</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2564</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -48086,7 +48020,7 @@
         <v>101</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BB199" s="1">
         <v>9</v>
@@ -48095,7 +48029,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48107,10 +48041,10 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="BI199" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="BI199" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
@@ -48122,13 +48056,13 @@
         <v>102</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BS199" s="3">
         <v>37735</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48146,19 +48080,19 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="CG199" s="1" t="s">
+      <c r="CH199" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>130</v>
@@ -48196,13 +48130,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48280,7 +48214,7 @@
         <v>101</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BB200" s="1">
         <v>9</v>
@@ -48289,7 +48223,7 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -48301,7 +48235,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>380</v>
@@ -48313,7 +48247,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48331,16 +48265,16 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="CD200" s="1" t="s">
         <v>901</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="CG200" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>388</v>
@@ -48381,13 +48315,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48420,7 +48354,7 @@
         <v>106</v>
       </c>
       <c r="AG201" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="AH201" s="1" t="s">
         <v>1984</v>
@@ -48465,7 +48399,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BB201" s="1">
         <v>9</v>
@@ -48474,7 +48408,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48486,7 +48420,7 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>118</v>
@@ -48495,7 +48429,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48516,13 +48450,13 @@
         <v>1643</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>130</v>
@@ -48563,13 +48497,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48647,7 +48581,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BB202" s="1">
         <v>9</v>
@@ -48656,7 +48590,7 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -48668,10 +48602,10 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>118</v>
@@ -48683,13 +48617,13 @@
         <v>102</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BS202" s="3">
         <v>43602</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -48713,13 +48647,13 @@
         <v>989</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="CG202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="CH202" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="CI202" s="1" t="s">
         <v>130</v>
@@ -48757,13 +48691,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48841,7 +48775,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BB203" s="1">
         <v>9</v>
@@ -48850,7 +48784,7 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -48862,7 +48796,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>975</v>
@@ -48874,7 +48808,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -48892,16 +48826,16 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2618</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2619</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>980</v>
@@ -48942,13 +48876,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48987,7 +48921,7 @@
         <v>42247</v>
       </c>
       <c r="AD204" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="AF204" s="1" t="s">
         <v>106</v>
@@ -49041,7 +48975,7 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -49053,10 +48987,10 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49068,13 +49002,13 @@
         <v>219</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BS204" s="3">
         <v>36580</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49095,7 +49029,7 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>294</v>
@@ -49104,10 +49038,10 @@
         <v>1672</v>
       </c>
       <c r="CG204" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="CH204" s="1" t="s">
         <v>2630</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2631</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -49145,13 +49079,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49232,7 +49166,7 @@
         <v>19</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49244,7 +49178,7 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1069</v>
@@ -49259,13 +49193,13 @@
         <v>119</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BS205" s="3">
         <v>37747</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49289,10 +49223,10 @@
         <v>677</v>
       </c>
       <c r="CE205" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="CG205" s="1" t="s">
         <v>2639</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2640</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1075</v>
@@ -49333,13 +49267,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2642</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2643</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49423,7 +49357,7 @@
         <v>19</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -49435,7 +49369,7 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -49444,7 +49378,7 @@
         <v>105</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49462,16 +49396,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2650</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>130</v>
@@ -49512,13 +49446,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49602,7 +49536,7 @@
         <v>19</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -49614,7 +49548,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>1056</v>
@@ -49626,7 +49560,7 @@
         <v>105</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -49644,16 +49578,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2658</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2660</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>1062</v>
@@ -49694,13 +49628,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49781,7 +49715,7 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -49793,10 +49727,10 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -49808,13 +49742,13 @@
         <v>102</v>
       </c>
       <c r="BR208" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="BS208" s="3">
         <v>37334</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -49835,16 +49769,16 @@
         <v>522</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="CE208" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="CG208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2671</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2672</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -49882,13 +49816,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2674</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2675</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -49969,7 +49903,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -49981,10 +49915,10 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>118</v>
@@ -49996,13 +49930,13 @@
         <v>102</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BS209" s="3">
         <v>37904</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -50023,16 +49957,16 @@
         <v>989</v>
       </c>
       <c r="CD209" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="CE209" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="CG209" s="1" t="s">
+      <c r="CH209" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="CH209" s="1" t="s">
-        <v>2684</v>
       </c>
       <c r="CI209" s="1" t="s">
         <v>130</v>
@@ -50070,13 +50004,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2687</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -50157,7 +50091,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50169,7 +50103,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>380</v>
@@ -50184,13 +50118,13 @@
         <v>119</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BS210" s="3">
         <v>36111</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -50208,16 +50142,16 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="CE210" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="CG210" s="1" t="s">
         <v>2693</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2694</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>388</v>
@@ -50258,13 +50192,13 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2696</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2697</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
@@ -50345,7 +50279,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>113</v>
@@ -50357,10 +50291,10 @@
         <v>115</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>118</v>
@@ -50372,13 +50306,13 @@
         <v>119</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BS211" s="3">
         <v>37785</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>122</v>
@@ -50396,19 +50330,19 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="CE211" s="1" t="s">
+      <c r="CG211" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="CG211" s="1" t="s">
+      <c r="CH211" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="CH211" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="CI211" s="1" t="s">
         <v>130</v>
@@ -50446,13 +50380,13 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -50536,7 +50470,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -50548,7 +50482,7 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1961</v>
@@ -50560,7 +50494,7 @@
         <v>105</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -50581,13 +50515,13 @@
         <v>1304</v>
       </c>
       <c r="CD212" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="CE212" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="CE212" s="1" t="s">
+      <c r="CG212" s="1" t="s">
         <v>2715</v>
-      </c>
-      <c r="CG212" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="CH212" s="1" t="s">
         <v>1968</v>
@@ -50628,13 +50562,13 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
@@ -50712,7 +50646,7 @@
         <v>101</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="BB213" s="1">
         <v>9</v>
@@ -50721,7 +50655,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>113</v>
@@ -50733,7 +50667,7 @@
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>1069</v>
@@ -50745,7 +50679,7 @@
         <v>105</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>122</v>
@@ -50763,16 +50697,16 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="CD213" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="CD213" s="1" t="s">
+      <c r="CE213" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CG213" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="CG213" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="CH213" s="1" t="s">
         <v>1075</v>
@@ -50813,13 +50747,13 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2729</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2730</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
@@ -50897,7 +50831,7 @@
         <v>101</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BB214" s="1">
         <v>9</v>
@@ -50906,7 +50840,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>113</v>
@@ -50918,7 +50852,7 @@
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>1975</v>
@@ -50930,7 +50864,7 @@
         <v>105</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>122</v>
@@ -50948,16 +50882,16 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="CD214" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="CE214" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CG214" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="CG214" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="CH214" s="1" t="s">
         <v>1980</v>
@@ -50998,13 +50932,13 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
@@ -51082,7 +51016,7 @@
         <v>101</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BB215" s="1">
         <v>9</v>
@@ -51091,7 +51025,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>113</v>
@@ -51103,7 +51037,7 @@
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>118</v>
@@ -51112,7 +51046,7 @@
         <v>105</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -51133,13 +51067,13 @@
         <v>1160</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CG215" s="1" t="s">
         <v>2745</v>
-      </c>
-      <c r="CG215" s="1" t="s">
-        <v>2746</v>
       </c>
       <c r="CH215" s="1" t="s">
         <v>130</v>
@@ -51180,16 +51114,16 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -51267,7 +51201,7 @@
         <v>101</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BB216" s="1">
         <v>9</v>
@@ -51276,7 +51210,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>113</v>
@@ -51288,7 +51222,7 @@
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>1961</v>
@@ -51306,13 +51240,13 @@
         <v>159</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BS216" s="3">
         <v>37513</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51330,16 +51264,16 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="CD216" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE216" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="CG216" s="1" t="s">
         <v>2756</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2757</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>1968</v>
@@ -51380,13 +51314,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -51467,7 +51401,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -51479,10 +51413,10 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>118</v>
@@ -51494,13 +51428,13 @@
         <v>102</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="BS217" s="3">
         <v>41024</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51518,19 +51452,19 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="CE217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="CG217" s="1" t="s">
+      <c r="CH217" s="1" t="s">
         <v>2769</v>
-      </c>
-      <c r="CH217" s="1" t="s">
-        <v>2770</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>130</v>
@@ -51568,13 +51502,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -51607,7 +51541,7 @@
         <v>106</v>
       </c>
       <c r="AG218" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="AH218" s="1" t="s">
         <v>1984</v>
@@ -51631,28 +51565,28 @@
         <v>110</v>
       </c>
       <c r="AQ218" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="AR218" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS218" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT218" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU218" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV218" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY218" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ218" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="AR218" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS218" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT218" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU218" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV218" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY218" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ218" s="1" t="s">
-        <v>2775</v>
       </c>
       <c r="BB218" s="1">
         <v>9</v>
@@ -51661,7 +51595,7 @@
         <v>19</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51673,7 +51607,7 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>380</v>
@@ -51688,13 +51622,13 @@
         <v>119</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BS218" s="3">
         <v>34808</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51712,16 +51646,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>388</v>
@@ -51762,13 +51696,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2785</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51843,7 +51777,7 @@
         <v>101</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="BB219" s="1">
         <v>9</v>
@@ -51852,7 +51786,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51864,7 +51798,7 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1082</v>
@@ -51879,13 +51813,13 @@
         <v>102</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BS219" s="3">
         <v>37336</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51903,16 +51837,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>1088</v>
@@ -51953,13 +51887,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2797</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2798</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -52037,7 +51971,7 @@
         <v>101</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="BB220" s="1">
         <v>9</v>
@@ -52046,7 +51980,7 @@
         <v>19</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -52058,7 +51992,7 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>586</v>
@@ -52070,7 +52004,7 @@
         <v>105</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -52088,16 +52022,16 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2806</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>592</v>
@@ -52138,13 +52072,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -52228,7 +52162,7 @@
         <v>19</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -52240,7 +52174,7 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>118</v>
@@ -52249,7 +52183,7 @@
         <v>105</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52267,16 +52201,16 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="CD221" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CE221" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="CE221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>130</v>
@@ -52299,7 +52233,7 @@
         <v>90</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>92</v>
@@ -52311,16 +52245,16 @@
         <v>94</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2819</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>110</v>
@@ -52389,7 +52323,7 @@
         <v>0</v>
       </c>
       <c r="BZ222" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="CA222" s="1" t="s">
         <v>124</v>
@@ -52401,7 +52335,7 @@
         <v>1798</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="223" spans="1:87" x14ac:dyDescent="0.25">
@@ -52436,13 +52370,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52477,12 +52411,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -52532,7 +52461,7 @@
         <v>101</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="BB223" s="1">
         <v>9</v>
@@ -52541,7 +52470,7 @@
         <v>19</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52553,10 +52482,10 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
@@ -52565,7 +52494,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52589,16 +52518,16 @@
         <v>1208</v>
       </c>
       <c r="CD223" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="CG223" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="CE223" s="1" t="s">
+      <c r="CH223" s="1" t="s">
         <v>2832</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2833</v>
-      </c>
-      <c r="CH223" s="1" t="s">
-        <v>2834</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52636,10 +52565,10 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>110</v>
@@ -52663,7 +52592,7 @@
         <v>106</v>
       </c>
       <c r="AG224" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="AH224" s="1" t="s">
         <v>61</v>
@@ -52708,7 +52637,7 @@
         <v>0</v>
       </c>
       <c r="BZ224" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="CA224" s="1" t="s">
         <v>124</v>
@@ -52720,7 +52649,7 @@
         <v>1798</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="225" spans="1:87" x14ac:dyDescent="0.25">
@@ -52755,10 +52684,10 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>110</v>
@@ -52845,7 +52774,7 @@
         <v>1798</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="226" spans="1:87" x14ac:dyDescent="0.25">
@@ -52862,7 +52791,7 @@
         <v>90</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>92</v>
@@ -52874,16 +52803,16 @@
         <v>94</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>110</v>
@@ -52952,7 +52881,7 @@
         <v>0</v>
       </c>
       <c r="BZ226" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="CA226" s="1" t="s">
         <v>124</v>
@@ -52964,7 +52893,7 @@
         <v>1798</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="227" spans="1:87" x14ac:dyDescent="0.25">
@@ -52999,10 +52928,10 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>110</v>
@@ -53026,7 +52955,7 @@
         <v>106</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>376</v>
@@ -53083,7 +53012,7 @@
         <v>1798</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="228" spans="1:87" x14ac:dyDescent="0.25">
@@ -53118,10 +53047,10 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>110</v>
@@ -53145,7 +53074,7 @@
         <v>106</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="AH228" s="1" t="s">
         <v>376</v>
@@ -53202,7 +53131,7 @@
         <v>1798</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="229" spans="1:87" x14ac:dyDescent="0.25">
@@ -53237,10 +53166,10 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>110</v>
@@ -53264,7 +53193,7 @@
         <v>106</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="AH229" s="1" t="s">
         <v>376</v>
@@ -53321,7 +53250,7 @@
         <v>1798</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="230" spans="1:87" x14ac:dyDescent="0.25">
@@ -53356,10 +53285,10 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>110</v>
@@ -53383,7 +53312,7 @@
         <v>106</v>
       </c>
       <c r="AG230" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="AH230" s="1" t="s">
         <v>376</v>
@@ -53440,7 +53369,7 @@
         <v>1798</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="231" spans="1:87" x14ac:dyDescent="0.25">
@@ -53475,10 +53404,10 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>110</v>
@@ -53559,7 +53488,7 @@
         <v>1798</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="232" spans="1:87" x14ac:dyDescent="0.25">
@@ -53594,10 +53523,10 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>110</v>
@@ -53678,7 +53607,7 @@
         <v>1798</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="233" spans="1:87" x14ac:dyDescent="0.25">
@@ -53713,10 +53642,10 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>110</v>
@@ -53797,7 +53726,7 @@
         <v>1798</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="234" spans="1:87" x14ac:dyDescent="0.25">
@@ -53832,10 +53761,10 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>110</v>
@@ -53916,7 +53845,7 @@
         <v>1798</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="235" spans="1:87" x14ac:dyDescent="0.25">
@@ -53951,13 +53880,13 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="N235" s="1" t="s">
         <v>2860</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>2861</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2862</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>100</v>
@@ -53986,12 +53915,7 @@
       <c r="AA235" s="1">
         <v>0</v>
       </c>
-      <c r="AC235" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD235" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC235" s="3"/>
       <c r="AF235" s="1" t="s">
         <v>106</v>
       </c>
@@ -54044,7 +53968,7 @@
         <v>19</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="BE235" s="1" t="s">
         <v>113</v>
@@ -54056,7 +53980,7 @@
         <v>115</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="BI235" s="1" t="s">
         <v>380</v>
@@ -54071,13 +53995,13 @@
         <v>102</v>
       </c>
       <c r="BR235" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="BS235" s="3">
         <v>36306</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54095,16 +54019,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="CD235" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="CE235" s="1" t="s">
         <v>2867</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CG235" s="1" t="s">
         <v>2868</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2869</v>
-      </c>
-      <c r="CG235" s="1" t="s">
-        <v>2870</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>388</v>
@@ -54145,13 +54069,13 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="N236" s="1" t="s">
         <v>2871</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>2872</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2873</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -54180,12 +54104,7 @@
       <c r="AA236" s="1">
         <v>0</v>
       </c>
-      <c r="AC236" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD236" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC236" s="3"/>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
@@ -54241,7 +54160,7 @@
         <v>19</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="BE236" s="1" t="s">
         <v>113</v>
@@ -54253,7 +54172,7 @@
         <v>115</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -54262,7 +54181,7 @@
         <v>105</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -54280,16 +54199,16 @@
         <v>101</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>130</v>
@@ -54330,13 +54249,13 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="N237" s="1" t="s">
         <v>2880</v>
-      </c>
-      <c r="L237" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2882</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -54368,12 +54287,7 @@
       <c r="AB237" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC237" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD237" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC237" s="3"/>
       <c r="AF237" s="1" t="s">
         <v>106</v>
       </c>
@@ -54426,7 +54340,7 @@
         <v>19</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>113</v>
@@ -54438,7 +54352,7 @@
         <v>115</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="BI237" s="1" t="s">
         <v>1961</v>
@@ -54453,13 +54367,13 @@
         <v>102</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="BS237" s="3">
         <v>38234</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -54477,16 +54391,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>1968</v>
@@ -54527,13 +54441,13 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="N238" s="1" t="s">
         <v>2890</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2892</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -54562,12 +54476,7 @@
       <c r="AA238" s="1">
         <v>0</v>
       </c>
-      <c r="AC238" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD238" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC238" s="3"/>
       <c r="AF238" s="1" t="s">
         <v>106</v>
       </c>
@@ -54623,7 +54532,7 @@
         <v>19</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="BE238" s="1" t="s">
         <v>113</v>
@@ -54635,7 +54544,7 @@
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="BI238" s="1" t="s">
         <v>756</v>
@@ -54647,7 +54556,7 @@
         <v>105</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -54665,16 +54574,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="CD238" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="CE238" s="1" t="s">
         <v>2896</v>
       </c>
-      <c r="CD238" s="1" t="s">
+      <c r="CG238" s="1" t="s">
         <v>2897</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="CG238" s="1" t="s">
-        <v>2899</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>762</v>
@@ -54715,13 +54624,13 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="N239" s="1" t="s">
         <v>2900</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2902</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54753,12 +54662,7 @@
       <c r="AB239" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC239" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD239" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC239" s="3"/>
       <c r="AE239" s="3">
         <v>43611</v>
       </c>
@@ -54817,13 +54721,13 @@
         <v>19</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
@@ -54832,7 +54736,7 @@
         <v>105</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -54850,16 +54754,16 @@
         <v>101</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="CD239" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="CE239" s="1" t="s">
         <v>2906</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CG239" s="1" t="s">
         <v>2907</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="CG239" s="1" t="s">
-        <v>2909</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -54900,13 +54804,13 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="N240" s="1" t="s">
         <v>2910</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2912</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -54935,12 +54839,7 @@
       <c r="AA240" s="1">
         <v>0</v>
       </c>
-      <c r="AC240" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD240" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC240" s="3"/>
       <c r="AF240" s="1" t="s">
         <v>106</v>
       </c>
@@ -54993,7 +54892,7 @@
         <v>19</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="BE240" s="1" t="s">
         <v>113</v>
@@ -55005,10 +54904,10 @@
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="BI240" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
@@ -55020,13 +54919,13 @@
         <v>219</v>
       </c>
       <c r="BR240" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="BS240" s="3">
         <v>37069</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55047,16 +54946,16 @@
         <v>772</v>
       </c>
       <c r="CD240" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>2918</v>
       </c>
-      <c r="CE240" s="1" t="s">
+      <c r="CH240" s="1" t="s">
         <v>2919</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>2920</v>
-      </c>
-      <c r="CH240" s="1" t="s">
-        <v>2921</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>130</v>
@@ -55094,13 +54993,13 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="N241" s="1" t="s">
         <v>2922</v>
-      </c>
-      <c r="L241" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2924</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55129,12 +55028,7 @@
       <c r="AA241" s="1">
         <v>0</v>
       </c>
-      <c r="AC241" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD241" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC241" s="3"/>
       <c r="AF241" s="1" t="s">
         <v>106</v>
       </c>
@@ -55190,7 +55084,7 @@
         <v>19</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="BE241" s="1" t="s">
         <v>113</v>
@@ -55202,7 +55096,7 @@
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="BI241" s="1" t="s">
         <v>1056</v>
@@ -55214,7 +55108,7 @@
         <v>105</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55232,16 +55126,16 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="CD241" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2928</v>
       </c>
-      <c r="CD241" s="1" t="s">
+      <c r="CG241" s="1" t="s">
         <v>2929</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="CG241" s="1" t="s">
-        <v>2931</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>1062</v>
@@ -55282,13 +55176,13 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="N242" s="1" t="s">
         <v>2932</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55324,7 +55218,7 @@
         <v>43403</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="AE242" s="3">
         <v>43677</v>
@@ -55378,7 +55272,7 @@
         <v>101</v>
       </c>
       <c r="AZ242" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="BB242" s="1">
         <v>9</v>
@@ -55387,13 +55281,13 @@
         <v>19</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
@@ -55402,7 +55296,7 @@
         <v>105</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -55420,16 +55314,16 @@
         <v>101</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>2077</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -55470,13 +55364,13 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="N243" s="1" t="s">
         <v>2942</v>
-      </c>
-      <c r="L243" s="1" t="s">
-        <v>2943</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2944</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -55505,12 +55399,7 @@
       <c r="AA243" s="1">
         <v>0</v>
       </c>
-      <c r="AC243" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD243" s="1" t="s">
-        <v>2945</v>
-      </c>
+      <c r="AC243" s="3"/>
       <c r="AF243" s="1" t="s">
         <v>106</v>
       </c>
@@ -55557,7 +55446,7 @@
         <v>101</v>
       </c>
       <c r="AZ243" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="BB243" s="1">
         <v>9</v>
@@ -55566,7 +55455,7 @@
         <v>19</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BE243" s="1" t="s">
         <v>113</v>
@@ -55578,13 +55467,13 @@
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BI243" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BJ243" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
@@ -55596,13 +55485,13 @@
         <v>219</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BS243" s="3">
         <v>35125</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -55620,22 +55509,22 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE243" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="CG243" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="CH243" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="CI243" s="1" t="s">
         <v>2954</v>
-      </c>
-      <c r="CG243" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="CH243" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="CI243" s="1" t="s">
-        <v>2957</v>
       </c>
     </row>
     <row r="244" spans="1:87" x14ac:dyDescent="0.25">
@@ -55670,13 +55559,13 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55760,7 +55649,7 @@
         <v>19</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>115</v>
@@ -55769,7 +55658,7 @@
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -55787,13 +55676,13 @@
         <v>92</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="CG244" s="1" t="s">
         <v>130</v>
@@ -55837,13 +55726,13 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55927,7 +55816,7 @@
         <v>19</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>115</v>
@@ -55936,7 +55825,7 @@
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -55957,10 +55846,10 @@
         <v>562</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="CG245" s="1" t="s">
         <v>130</v>
@@ -56004,13 +55893,13 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56043,7 +55932,7 @@
         <v>106</v>
       </c>
       <c r="AG246" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="AH246" s="1" t="s">
         <v>2220</v>
@@ -56094,7 +55983,7 @@
         <v>19</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
@@ -56106,7 +55995,7 @@
         <v>159</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56124,13 +56013,13 @@
         <v>101</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CD246" s="1" t="s">
         <v>989</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="CG246" s="1" t="s">
         <v>130</v>
@@ -56174,13 +56063,13 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56267,7 +56156,7 @@
         <v>19</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
@@ -56276,7 +56165,7 @@
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56285,7 +56174,7 @@
         <v>0</v>
       </c>
       <c r="BZ247" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="CA247" s="1" t="s">
         <v>124</v>
@@ -56294,13 +56183,13 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="CG247" s="1" t="s">
         <v>130</v>
@@ -56338,7 +56227,7 @@
         <v>94</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>96</v>
@@ -56347,10 +56236,10 @@
         <v>250</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N248" s="1" t="s">
         <v>252</v>
@@ -56380,7 +56269,7 @@
         <v>42582</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>106</v>
@@ -56437,13 +56326,13 @@
         <v>0</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BI248" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
@@ -56485,10 +56374,10 @@
         <v>262</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CH248" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>130</v>
@@ -56508,7 +56397,7 @@
         <v>228</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>92</v>
@@ -56526,16 +56415,16 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="Q249" s="3">
         <v>17060</v>
@@ -56568,13 +56457,13 @@
         <v>42628</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG249" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AH249" s="1" t="s">
         <v>138</v>
@@ -56619,22 +56508,22 @@
         <v>101</v>
       </c>
       <c r="AZ249" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="BB249" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC249" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD249" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="BH249" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>3004</v>
-      </c>
-      <c r="BB249" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC249" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD249" s="1" t="s">
-        <v>3005</v>
-      </c>
-      <c r="BH249" s="1" t="s">
-        <v>3006</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>3007</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
@@ -56643,7 +56532,7 @@
         <v>105</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -56652,7 +56541,7 @@
         <v>0</v>
       </c>
       <c r="BZ249" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="CA249" s="1" t="s">
         <v>124</v>
@@ -56667,13 +56556,13 @@
         <v>126</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CH249" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="CI249" s="1" t="s">
         <v>130</v>
@@ -56693,7 +56582,7 @@
         <v>228</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>101</v>
@@ -56711,16 +56600,16 @@
         <v>96</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="Q250" s="3">
         <v>26864</v>
@@ -56750,7 +56639,7 @@
         <v>42735</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>106</v>
@@ -56804,10 +56693,10 @@
         <v>0</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
@@ -56819,13 +56708,13 @@
         <v>219</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BS250" s="3">
         <v>102</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -56837,7 +56726,7 @@
         <v>110</v>
       </c>
       <c r="BZ250" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="CA250" s="1" t="s">
         <v>124</v>
@@ -56846,16 +56735,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="CG250" s="1" t="s">
         <v>3022</v>
-      </c>
-      <c r="CD250" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>3025</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -56896,16 +56785,16 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="Q251" s="3">
         <v>25379</v>
@@ -56935,7 +56824,7 @@
         <v>39800</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>234</v>
@@ -56989,10 +56878,10 @@
         <v>0</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
@@ -57004,13 +56893,13 @@
         <v>1690</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="BS251" s="3">
         <v>35915</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57040,10 +56929,10 @@
         <v>437</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="CG251" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57066,7 +56955,7 @@
         <v>90</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>101</v>
@@ -57078,22 +56967,22 @@
         <v>94</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="Q252" s="3">
         <v>17470</v>
@@ -57123,7 +57012,7 @@
         <v>43100</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>106</v>
@@ -57180,10 +57069,10 @@
         <v>0</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
@@ -57192,7 +57081,7 @@
         <v>105</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57216,16 +57105,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CG252" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57266,16 +57155,16 @@
         <v>96</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="Q253" s="3">
         <v>23356</v>
@@ -57302,7 +57191,7 @@
         <v>43105</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>106</v>
@@ -57356,10 +57245,10 @@
         <v>0</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
@@ -57371,13 +57260,13 @@
         <v>102</v>
       </c>
       <c r="BR253" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BS253" s="3">
         <v>34412</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -57395,16 +57284,16 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>2381</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -57445,16 +57334,16 @@
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="Q254" s="3">
         <v>17726</v>
@@ -57487,7 +57376,7 @@
         <v>43312</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>234</v>
@@ -57538,7 +57427,7 @@
         <v>101</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BB254" s="1">
         <v>0</v>
@@ -57547,10 +57436,10 @@
         <v>0</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
@@ -57559,7 +57448,7 @@
         <v>105</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -57577,16 +57466,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="CE254" s="1" t="s">
         <v>925</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -57627,16 +57516,16 @@
         <v>96</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="Q255" s="3">
         <v>22645</v>
@@ -57663,13 +57552,13 @@
         <v>43298</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="AH255" s="1" t="s">
         <v>61</v>
@@ -57717,13 +57606,13 @@
         <v>0</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BI255" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
@@ -57732,13 +57621,13 @@
         <v>102</v>
       </c>
       <c r="BR255" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BS255" s="3">
         <v>35209</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -57747,7 +57636,7 @@
         <v>0</v>
       </c>
       <c r="BZ255" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="CA255" s="1" t="s">
         <v>124</v>
@@ -57759,16 +57648,16 @@
         <v>1716</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CH255" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>130</v>
@@ -57788,7 +57677,7 @@
         <v>90</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>92</v>
@@ -57800,22 +57689,22 @@
         <v>94</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="Q256" s="3">
         <v>17041</v>
@@ -57842,7 +57731,7 @@
         <v>42735</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>106</v>
@@ -57899,10 +57788,10 @@
         <v>0</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
@@ -57911,7 +57800,7 @@
         <v>105</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -57923,7 +57812,7 @@
         <v>110</v>
       </c>
       <c r="BZ256" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="CA256" s="1" t="s">
         <v>124</v>
@@ -57932,16 +57821,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="CD256" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="CG256" s="1" t="s">
         <v>3084</v>
-      </c>
-      <c r="CD256" s="1" t="s">
-        <v>3085</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3086</v>
-      </c>
-      <c r="CG256" s="1" t="s">
-        <v>3087</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -57982,16 +57871,16 @@
         <v>96</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="Q257" s="3">
         <v>30147</v>
@@ -58014,17 +57903,12 @@
       <c r="AA257" s="1">
         <v>0</v>
       </c>
-      <c r="AC257" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD257" s="1" t="s">
-        <v>2825</v>
-      </c>
+      <c r="AC257" s="3"/>
       <c r="AF257" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG257" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="AH257" s="1" t="s">
         <v>376</v>
@@ -58072,10 +57956,10 @@
         <v>0</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
@@ -58087,13 +57971,13 @@
         <v>102</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BS257" s="3">
         <v>37124</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58111,16 +57995,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CD257" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58161,16 +58045,16 @@
         <v>96</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="Q258" s="3">
         <v>17821</v>
@@ -58206,7 +58090,7 @@
         <v>43388</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>106</v>
@@ -58257,7 +58141,7 @@
         <v>101</v>
       </c>
       <c r="AZ258" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BB258" s="1">
         <v>0</v>
@@ -58266,10 +58150,10 @@
         <v>0</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
@@ -58278,7 +58162,7 @@
         <v>105</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58296,16 +58180,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="CE258" s="1" t="s">
         <v>509</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58319,10 +58203,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1276</v>
@@ -58337,7 +58221,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1276</v>
@@ -58346,16 +58230,16 @@
         <v>801</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -58406,7 +58290,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -58442,7 +58326,7 @@
         <v>19</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BE259" s="1" t="s">
         <v>113</v>
@@ -58454,13 +58338,13 @@
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -58487,10 +58371,10 @@
         <v>1109</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58531,13 +58415,13 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -58624,7 +58508,7 @@
         <v>19</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BE260" s="1" t="s">
         <v>113</v>
@@ -58636,13 +58520,13 @@
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -58663,13 +58547,13 @@
         <v>1269</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -58683,10 +58567,10 @@
         <v>87</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1276</v>
@@ -58701,7 +58585,7 @@
         <v>93</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1276</v>
@@ -58710,16 +58594,16 @@
         <v>801</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -58770,7 +58654,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -58806,7 +58690,7 @@
         <v>19</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BE261" s="1" t="s">
         <v>113</v>
@@ -58818,13 +58702,13 @@
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -58845,16 +58729,16 @@
         <v>101</v>
       </c>
       <c r="CC261" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="CD261" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="CE261" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="CG261" s="1" t="s">
         <v>3135</v>
-      </c>
-      <c r="CD261" s="1" t="s">
-        <v>3136</v>
-      </c>
-      <c r="CE261" s="1" t="s">
-        <v>3137</v>
-      </c>
-      <c r="CG261" s="1" t="s">
-        <v>3138</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -58868,10 +58752,10 @@
         <v>87</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1276</v>
@@ -58886,7 +58770,7 @@
         <v>93</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1276</v>
@@ -58895,13 +58779,13 @@
         <v>801</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -58988,7 +58872,7 @@
         <v>19</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BE262" s="1" t="s">
         <v>113</v>
@@ -59000,13 +58884,13 @@
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59027,7 +58911,7 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="CD262" s="1" t="s">
         <v>603</v>
@@ -59036,7 +58920,7 @@
         <v>509</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -59050,10 +58934,10 @@
         <v>87</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1276</v>
@@ -59068,7 +58952,7 @@
         <v>93</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1276</v>
@@ -59077,13 +58961,13 @@
         <v>801</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -59137,7 +59021,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59173,7 +59057,7 @@
         <v>19</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BE263" s="1" t="s">
         <v>113</v>
@@ -59185,13 +59069,13 @@
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59215,13 +59099,13 @@
         <v>493</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CG263" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59235,10 +59119,10 @@
         <v>87</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1276</v>
@@ -59253,7 +59137,7 @@
         <v>93</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1276</v>
@@ -59262,13 +59146,13 @@
         <v>801</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
@@ -59355,7 +59239,7 @@
         <v>19</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BE264" s="1" t="s">
         <v>113</v>
@@ -59367,13 +59251,13 @@
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -59394,16 +59278,16 @@
         <v>101</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>614</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -59417,10 +59301,10 @@
         <v>87</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1276</v>
@@ -59435,7 +59319,7 @@
         <v>93</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1276</v>
@@ -59444,13 +59328,13 @@
         <v>801</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -59486,7 +59370,7 @@
         <v>106</v>
       </c>
       <c r="AG265" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="AH265" s="1" t="s">
         <v>1278</v>
@@ -59504,7 +59388,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -59540,7 +59424,7 @@
         <v>19</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BE265" s="1" t="s">
         <v>113</v>
@@ -59552,13 +59436,13 @@
         <v>115</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -59579,16 +59463,16 @@
         <v>101</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>1031</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59602,10 +59486,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1276</v>
@@ -59620,7 +59504,7 @@
         <v>93</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1276</v>
@@ -59629,13 +59513,13 @@
         <v>801</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -59689,7 +59573,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -59725,7 +59609,7 @@
         <v>19</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BE266" s="1" t="s">
         <v>113</v>
@@ -59737,13 +59621,13 @@
         <v>115</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -59767,13 +59651,13 @@
         <v>1015</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59787,10 +59671,10 @@
         <v>87</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1276</v>
@@ -59805,7 +59689,7 @@
         <v>93</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1276</v>
@@ -59814,13 +59698,13 @@
         <v>801</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -59874,7 +59758,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -59910,7 +59794,7 @@
         <v>19</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="BE267" s="1" t="s">
         <v>113</v>
@@ -59922,13 +59806,13 @@
         <v>115</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -59955,10 +59839,10 @@
         <v>2190</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>130</v>
@@ -59972,10 +59856,10 @@
         <v>87</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1276</v>
@@ -59990,7 +59874,7 @@
         <v>93</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1276</v>
@@ -59999,13 +59883,13 @@
         <v>801</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="L268" s="1" t="s">
         <v>2327</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -60041,7 +59925,7 @@
         <v>106</v>
       </c>
       <c r="AG268" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="AH268" s="1" t="s">
         <v>1278</v>
@@ -60056,7 +59940,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -60089,19 +59973,19 @@
         <v>19</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -60119,16 +60003,16 @@
         <v>101</v>
       </c>
       <c r="CC268" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="CD268" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="CE268" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="CG268" s="1" t="s">
         <v>3198</v>
-      </c>
-      <c r="CD268" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="CE268" s="1" t="s">
-        <v>3200</v>
-      </c>
-      <c r="CG268" s="1" t="s">
-        <v>3201</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60142,10 +60026,10 @@
         <v>87</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1276</v>
@@ -60160,7 +60044,7 @@
         <v>93</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1276</v>
@@ -60169,13 +60053,13 @@
         <v>801</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="L269" s="1" t="s">
         <v>2335</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -60259,19 +60143,19 @@
         <v>19</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -60292,16 +60176,16 @@
         <v>2258</v>
       </c>
       <c r="CC269" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="CD269" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="CE269" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="CG269" s="1" t="s">
         <v>3207</v>
-      </c>
-      <c r="CD269" s="1" t="s">
-        <v>3208</v>
-      </c>
-      <c r="CE269" s="1" t="s">
-        <v>3209</v>
-      </c>
-      <c r="CG269" s="1" t="s">
-        <v>3210</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60315,10 +60199,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1276</v>
@@ -60333,7 +60217,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1276</v>
@@ -60342,13 +60226,13 @@
         <v>801</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
@@ -60432,19 +60316,19 @@
         <v>19</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -60465,13 +60349,13 @@
         <v>1222</v>
       </c>
       <c r="CD270" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CG270" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -60485,10 +60369,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1276</v>
@@ -60503,7 +60387,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1276</v>
@@ -60512,16 +60396,16 @@
         <v>801</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
@@ -60572,7 +60456,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60608,7 +60492,7 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BE271" s="1" t="s">
         <v>113</v>
@@ -60620,13 +60504,13 @@
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -60647,16 +60531,16 @@
         <v>101</v>
       </c>
       <c r="CC271" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="CD271" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CG271" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -60670,10 +60554,10 @@
         <v>87</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1276</v>
@@ -60688,7 +60572,7 @@
         <v>93</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1276</v>
@@ -60697,13 +60581,13 @@
         <v>801</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
@@ -60757,7 +60641,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60793,7 +60677,7 @@
         <v>19</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BE272" s="1" t="s">
         <v>113</v>
@@ -60805,13 +60689,13 @@
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>122</v>
@@ -60832,16 +60716,16 @@
         <v>101</v>
       </c>
       <c r="CC272" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="CD272" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="CE272" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="CG272" s="1" t="s">
         <v>3235</v>
-      </c>
-      <c r="CD272" s="1" t="s">
-        <v>3236</v>
-      </c>
-      <c r="CE272" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="CG272" s="1" t="s">
-        <v>3238</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -60855,10 +60739,10 @@
         <v>87</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1276</v>
@@ -60873,7 +60757,7 @@
         <v>93</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1276</v>
@@ -60882,13 +60766,13 @@
         <v>801</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
@@ -60942,7 +60826,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -60978,7 +60862,7 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BE273" s="1" t="s">
         <v>113</v>
@@ -60990,13 +60874,13 @@
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -61017,16 +60901,16 @@
         <v>101</v>
       </c>
       <c r="CC273" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="CD273" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="CE273" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="CG273" s="1" t="s">
         <v>3245</v>
-      </c>
-      <c r="CD273" s="1" t="s">
-        <v>3246</v>
-      </c>
-      <c r="CE273" s="1" t="s">
-        <v>3247</v>
-      </c>
-      <c r="CG273" s="1" t="s">
-        <v>3248</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -61040,10 +60924,10 @@
         <v>87</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1276</v>
@@ -61058,7 +60942,7 @@
         <v>93</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1276</v>
@@ -61067,13 +60951,13 @@
         <v>801</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
@@ -61160,7 +61044,7 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BE274" s="1" t="s">
         <v>113</v>
@@ -61172,13 +61056,13 @@
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -61199,16 +61083,16 @@
         <v>101</v>
       </c>
       <c r="CC274" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="CE274" s="1" t="s">
         <v>204</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -61222,10 +61106,10 @@
         <v>87</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1276</v>
@@ -61240,7 +61124,7 @@
         <v>93</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1276</v>
@@ -61249,13 +61133,13 @@
         <v>801</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>100</v>
@@ -61309,7 +61193,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -61345,7 +61229,7 @@
         <v>19</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BE275" s="1" t="s">
         <v>113</v>
@@ -61357,19 +61241,19 @@
         <v>115</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW275" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="BX275" s="1">
         <v>0</v>
@@ -61387,16 +61271,16 @@
         <v>101</v>
       </c>
       <c r="CC275" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="CD275" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="CG275" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>130</v>
@@ -61410,10 +61294,10 @@
         <v>87</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1276</v>
@@ -61428,7 +61312,7 @@
         <v>93</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1276</v>
@@ -61437,13 +61321,13 @@
         <v>801</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>100</v>
@@ -61494,7 +61378,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61530,7 +61414,7 @@
         <v>19</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BE276" s="1" t="s">
         <v>113</v>
@@ -61542,13 +61426,13 @@
         <v>115</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>122</v>
@@ -61569,16 +61453,16 @@
         <v>101</v>
       </c>
       <c r="CC276" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="CG276" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61592,10 +61476,10 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1276</v>
@@ -61610,7 +61494,7 @@
         <v>93</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1276</v>
@@ -61619,13 +61503,13 @@
         <v>801</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>100</v>
@@ -61652,7 +61536,7 @@
         <v>0</v>
       </c>
       <c r="AG277" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="AH277" s="1" t="s">
         <v>376</v>
@@ -61667,7 +61551,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61697,7 +61581,7 @@
         <v>19</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BE277" s="1" t="s">
         <v>113</v>
@@ -61709,13 +61593,13 @@
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>122</v>
@@ -61733,16 +61617,16 @@
         <v>101</v>
       </c>
       <c r="CC277" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="CD277" s="1" t="s">
         <v>306</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="CG277" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61756,10 +61640,10 @@
         <v>87</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1276</v>
@@ -61774,7 +61658,7 @@
         <v>93</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1276</v>
@@ -61783,13 +61667,13 @@
         <v>801</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
@@ -61873,7 +61757,7 @@
         <v>19</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BE278" s="1" t="s">
         <v>113</v>
@@ -61885,13 +61769,13 @@
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>122</v>
@@ -61909,16 +61793,16 @@
         <v>101</v>
       </c>
       <c r="CC278" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="CD278" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="CE278" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="CG278" s="1" t="s">
         <v>3293</v>
-      </c>
-      <c r="CD278" s="1" t="s">
-        <v>3294</v>
-      </c>
-      <c r="CE278" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="CG278" s="1" t="s">
-        <v>3296</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61932,10 +61816,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1276</v>
@@ -61950,7 +61834,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1276</v>
@@ -61959,13 +61843,13 @@
         <v>801</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>100</v>
@@ -62052,7 +61936,7 @@
         <v>19</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BE279" s="1" t="s">
         <v>113</v>
@@ -62064,13 +61948,13 @@
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>122</v>
@@ -62088,16 +61972,16 @@
         <v>101</v>
       </c>
       <c r="CC279" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="CD279" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="CG279" s="1" t="s">
         <v>3303</v>
-      </c>
-      <c r="CD279" s="1" t="s">
-        <v>3304</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3305</v>
-      </c>
-      <c r="CG279" s="1" t="s">
-        <v>3306</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>130</v>
@@ -62111,10 +61995,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1276</v>
@@ -62129,7 +62013,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1276</v>
@@ -62138,13 +62022,13 @@
         <v>801</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
@@ -62153,7 +62037,7 @@
         <v>101</v>
       </c>
       <c r="Q280" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="R280" s="1" t="s">
         <v>136</v>
@@ -62195,7 +62079,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -62228,7 +62112,7 @@
         <v>19</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="BE280" s="1" t="s">
         <v>113</v>
@@ -62240,13 +62124,13 @@
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>122</v>
@@ -62264,16 +62148,16 @@
         <v>101</v>
       </c>
       <c r="CC280" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="CD280" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="CG280" s="1" t="s">
         <v>3315</v>
-      </c>
-      <c r="CD280" s="1" t="s">
-        <v>3316</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3317</v>
-      </c>
-      <c r="CG280" s="1" t="s">
-        <v>3318</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>130</v>
@@ -62283,6 +62167,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI280" xr:uid="{79782359-2FAE-410D-B3E5-DD623A09F216}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>